--- a/migforecasting/underground/tests on superdataset/test-12.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-12.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>значимость</t>
+  </si>
+  <si>
+    <t>Hybrid model 3 (superdataset-23.csv) balanced class</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -821,7 +823,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'hybrid-3'!$N$4:$N$20</c:f>
+              <c:f>'hybrid-3'!$T$4:$T$20</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -880,7 +882,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'hybrid-3'!$O$4:$O$20</c:f>
+              <c:f>'hybrid-3'!$U$4:$U$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2252,16 +2254,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>59870</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2901,7 +2903,7 @@
         <v>7.6226914658837075E-2</v>
       </c>
       <c r="U11" s="11">
-        <f t="shared" ref="U10:U14" si="5">(R11/S11-1) * 100</f>
+        <f t="shared" ref="U11:U13" si="5">(R11/S11-1) * 100</f>
         <v>161.00885193112134</v>
       </c>
       <c r="V11" s="4" t="str">
@@ -4124,10 +4126,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O56"/>
+  <dimension ref="C2:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4136,10 +4138,13 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="14" max="15" width="19" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
@@ -4148,8 +4153,12 @@
         <v>30</v>
       </c>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -4167,14 +4176,24 @@
       <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -4196,14 +4215,26 @@
       <c r="K4" s="3">
         <v>0.84813753581661899</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>37.76275490816974</v>
+      </c>
+      <c r="O4" s="3">
+        <v>115.6330886075949</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.93401015228426398</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="3">
+      <c r="U4" s="3">
         <v>0.13635125133648029</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <f>C4+1</f>
         <v>2</v>
@@ -4227,14 +4258,27 @@
       <c r="K5" s="3">
         <v>0.85950413223140498</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="2">
+        <f>M4+1</f>
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>37.447295756808117</v>
+      </c>
+      <c r="O5" s="3">
+        <v>133.90574683544301</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.9126213592233009</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="3">
+      <c r="U5" s="3">
         <v>5.4230937657627508E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f t="shared" ref="C6:C53" si="0">C5+1</f>
         <v>3</v>
@@ -4258,14 +4302,27 @@
       <c r="K6" s="3">
         <v>0.87052341597796146</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="2">
+        <f t="shared" ref="M6:M53" si="2">M5+1</f>
+        <v>3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>38.310208993033569</v>
+      </c>
+      <c r="O6" s="3">
+        <v>109.72736708860759</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="3">
+      <c r="U6" s="3">
         <v>3.7401566652542358E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4289,14 +4346,27 @@
       <c r="K7" s="3">
         <v>0.88022284122562677</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="3">
+        <v>38.494477517416087</v>
+      </c>
+      <c r="O7" s="3">
+        <v>112.1030126582279</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.94029850746268651</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="3">
+      <c r="U7" s="3">
         <v>5.5834335928215732E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4320,14 +4390,27 @@
       <c r="K8" s="3">
         <v>0.88705234159779611</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>37.511329955668153</v>
+      </c>
+      <c r="O8" s="3">
+        <v>122.0344556962026</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.94235588972431072</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="3">
+      <c r="U8" s="3">
         <v>3.6374567081282137E-2</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4351,14 +4434,27 @@
       <c r="K9" s="3">
         <v>0.84057971014492761</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="3">
+        <v>38.582773907536421</v>
+      </c>
+      <c r="O9" s="3">
+        <v>118.2500506329114</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.9346733668341709</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="3">
+      <c r="U9" s="3">
         <v>7.8460760140622601E-2</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4382,14 +4478,27 @@
       <c r="K10" s="3">
         <v>0.8651685393258427</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="3">
+        <v>37.22912602913236</v>
+      </c>
+      <c r="O10" s="3">
+        <v>121.15202531645571</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.92537313432835822</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="3">
+      <c r="U10" s="3">
         <v>4.0619965381784418E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4413,14 +4522,27 @@
       <c r="K11" s="3">
         <v>0.86285714285714288</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="3">
+        <v>37.172634578847379</v>
+      </c>
+      <c r="O11" s="3">
+        <v>124.4403797468354</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.91525423728813571</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="3">
+      <c r="U11" s="3">
         <v>4.0654135688913101E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4444,14 +4566,27 @@
       <c r="K12" s="3">
         <v>0.81976744186046513</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N12" s="3">
+        <v>37.949715009499712</v>
+      </c>
+      <c r="O12" s="3">
+        <v>123.94192405063291</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.91094147582697194</v>
+      </c>
+      <c r="T12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="3">
+      <c r="U12" s="3">
         <v>7.1284196051152507E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4475,14 +4610,27 @@
       <c r="K13" s="3">
         <v>0.88888888888888895</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N13" s="3">
+        <v>37.999442685243842</v>
+      </c>
+      <c r="O13" s="3">
+        <v>126.50156962025321</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="T13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="3">
+      <c r="U13" s="3">
         <v>3.9485673873556233E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4506,14 +4654,27 @@
       <c r="K14" s="3">
         <v>0.83625730994152048</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N14" s="3">
+        <v>38.515902469917677</v>
+      </c>
+      <c r="O14" s="3">
+        <v>123.1822025316456</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.90417690417690411</v>
+      </c>
+      <c r="T14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="3">
+      <c r="U14" s="3">
         <v>0.1027429897838899</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4537,14 +4698,27 @@
       <c r="K15" s="3">
         <v>0.83965014577259467</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N15" s="3">
+        <v>39.542830905636492</v>
+      </c>
+      <c r="O15" s="3">
+        <v>108.6044050632912</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.92191435768261965</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="3">
+      <c r="U15" s="3">
         <v>9.508076218583783E-2</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4568,14 +4742,27 @@
       <c r="K16" s="3">
         <v>0.83478260869565213</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N16" s="3">
+        <v>37.249803673210891</v>
+      </c>
+      <c r="O16" s="3">
+        <v>120.5392151898734</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.92111959287531808</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="3">
+      <c r="U16" s="3">
         <v>5.1526265303661098E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4599,14 +4786,27 @@
       <c r="K17" s="3">
         <v>0.87323943661971837</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N17" s="3">
+        <v>37.696326789107033</v>
+      </c>
+      <c r="O17" s="3">
+        <v>117.9752911392405</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.92151898734177207</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="3">
+      <c r="U17" s="3">
         <v>2.8460216310924508E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4630,14 +4830,27 @@
       <c r="K18" s="3">
         <v>0.86781609195402298</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N18" s="3">
+        <v>37.8659088030399</v>
+      </c>
+      <c r="O18" s="3">
+        <v>127.45956962025321</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.91133004926108363</v>
+      </c>
+      <c r="T18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="3">
+      <c r="U18" s="3">
         <v>5.2887381792774128E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4661,14 +4874,27 @@
       <c r="K19" s="3">
         <v>0.85555555555555551</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N19" s="3">
+        <v>38.316934768841037</v>
+      </c>
+      <c r="O19" s="3">
+        <v>131.2796962025316</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.8920863309352518</v>
+      </c>
+      <c r="T19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="3">
+      <c r="U19" s="3">
         <v>4.2630525860563782E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4692,14 +4918,27 @@
       <c r="K20" s="3">
         <v>0.86274509803921573</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N20" s="3">
+        <v>37.101051298290074</v>
+      </c>
+      <c r="O20" s="3">
+        <v>130.2959746835443</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.90726817042606511</v>
+      </c>
+      <c r="T20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="3">
+      <c r="U20" s="3">
         <v>3.5974468970171938E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4723,8 +4962,21 @@
       <c r="K21" s="3">
         <v>0.86740331491712708</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N21" s="3">
+        <v>38.182792906903103</v>
+      </c>
+      <c r="O21" s="3">
+        <v>105.16807594936709</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.93434343434343436</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4748,8 +5000,21 @@
       <c r="K22" s="3">
         <v>0.86440677966101698</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N22" s="3">
+        <v>37.533293223559227</v>
+      </c>
+      <c r="O22" s="3">
+        <v>136.46192405063289</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.91584158415841588</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4773,8 +5038,21 @@
       <c r="K23" s="3">
         <v>0.85310734463276838</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N23" s="3">
+        <v>37.958030398986708</v>
+      </c>
+      <c r="O23" s="3">
+        <v>131.2490886075949</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.9193154034229829</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4798,8 +5076,21 @@
       <c r="K24" s="3">
         <v>0.81049562682215748</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N24" s="3">
+        <v>36.83929702343255</v>
+      </c>
+      <c r="O24" s="3">
+        <v>127.9089113924051</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.9193154034229829</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4823,8 +5114,21 @@
       <c r="K25" s="3">
         <v>0.87640449438202261</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N25" s="3">
+        <v>37.511177960734649</v>
+      </c>
+      <c r="O25" s="3">
+        <v>130.14787341772151</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.91811414392059565</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4848,8 +5152,21 @@
       <c r="K26" s="3">
         <v>0.84813753581661899</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N26" s="3">
+        <v>38.815972134262189</v>
+      </c>
+      <c r="O26" s="3">
+        <v>124.1596708860759</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.90818858560794047</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4873,8 +5190,21 @@
       <c r="K27" s="3">
         <v>0.8820224719101124</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N27" s="3">
+        <v>38.631120962634583</v>
+      </c>
+      <c r="O27" s="3">
+        <v>116.7470126582278</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0.93606138107416881</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4898,8 +5228,21 @@
       <c r="K28" s="3">
         <v>0.82798833819241979</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N28" s="3">
+        <v>38.167137428752383</v>
+      </c>
+      <c r="O28" s="3">
+        <v>129.01599999999999</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.89447236180904521</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4923,8 +5266,21 @@
       <c r="K29" s="3">
         <v>0.86834733893557414</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N29" s="3">
+        <v>38.506567447751749</v>
+      </c>
+      <c r="O29" s="3">
+        <v>131.5638227848101</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.91176470588235292</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4948,8 +5304,21 @@
       <c r="K30" s="3">
         <v>0.85632183908045978</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N30" s="3">
+        <v>37.250253324889179</v>
+      </c>
+      <c r="O30" s="3">
+        <v>133.5833417721519</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.88997555012224949</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4973,8 +5342,21 @@
       <c r="K31" s="3">
         <v>0.85386819484240684</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N31" s="3">
+        <v>38.107023432552253</v>
+      </c>
+      <c r="O31" s="3">
+        <v>114.9284303797468</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0.90680100755667514</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4998,8 +5380,21 @@
       <c r="K32" s="3">
         <v>0.84679665738161569</v>
       </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N32" s="3">
+        <v>38.94525649145028</v>
+      </c>
+      <c r="O32" s="3">
+        <v>134.6053924050633</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0.89847715736040612</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5023,8 +5418,21 @@
       <c r="K33" s="3">
         <v>0.87955182072829119</v>
       </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N33" s="3">
+        <v>38.104566181127304</v>
+      </c>
+      <c r="O33" s="3">
+        <v>119.7461772151899</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0.91707317073170724</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5048,8 +5456,21 @@
       <c r="K34" s="3">
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N34" s="3">
+        <v>38.30692210259658</v>
+      </c>
+      <c r="O34" s="3">
+        <v>125.18703797468351</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0.92731829573934843</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5073,8 +5494,21 @@
       <c r="K35" s="3">
         <v>0.89750692520775632</v>
       </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N35" s="3">
+        <v>38.391716276124143</v>
+      </c>
+      <c r="O35" s="3">
+        <v>128.6852658227848</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0.89876543209876547</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5098,8 +5532,21 @@
       <c r="K36" s="3">
         <v>0.82898550724637676</v>
       </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N36" s="3">
+        <v>37.415579480683988</v>
+      </c>
+      <c r="O36" s="3">
+        <v>123.16848101265821</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0.93434343434343436</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5123,8 +5570,21 @@
       <c r="K37" s="3">
         <v>0.86532951289398274</v>
       </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N37" s="3">
+        <v>38.374851171627618</v>
+      </c>
+      <c r="O37" s="3">
+        <v>128.000835443038</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0.92345679012345672</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5148,8 +5608,21 @@
       <c r="K38" s="3">
         <v>0.850828729281768</v>
       </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N38" s="3">
+        <v>37.554661177960739</v>
+      </c>
+      <c r="O38" s="3">
+        <v>118.7492405063291</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0.92803970223325061</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5173,8 +5646,21 @@
       <c r="K39" s="3">
         <v>0.86760563380281697</v>
       </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N39" s="3">
+        <v>38.094648511716287</v>
+      </c>
+      <c r="O39" s="3">
+        <v>129.4126835443038</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0.9211822660098522</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5198,8 +5684,21 @@
       <c r="K40" s="3">
         <v>0.83236994219653182</v>
       </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N40" s="3">
+        <v>37.58687143761874</v>
+      </c>
+      <c r="O40" s="3">
+        <v>136.89729113924051</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0.91400491400491402</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5223,8 +5722,21 @@
       <c r="K41" s="3">
         <v>0.81976744186046513</v>
       </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N41" s="3">
+        <v>38.58915136162129</v>
+      </c>
+      <c r="O41" s="3">
+        <v>132.35569620253159</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0.90692124105011929</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5248,8 +5760,21 @@
       <c r="K42" s="3">
         <v>0.88135593220338992</v>
       </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N42" s="3">
+        <v>37.646573780873979</v>
+      </c>
+      <c r="O42" s="3">
+        <v>120.7328607594937</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0.93532338308457708</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5273,8 +5798,21 @@
       <c r="K43" s="3">
         <v>0.85959885386819479</v>
       </c>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N43" s="3">
+        <v>38.324167194426863</v>
+      </c>
+      <c r="O43" s="3">
+        <v>125.47164556962031</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0.91271820448877816</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5298,8 +5836,21 @@
       <c r="K44" s="3">
         <v>0.82080924855491344</v>
       </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N44" s="3">
+        <v>38.975319822672581</v>
+      </c>
+      <c r="O44" s="3">
+        <v>143.5213670886076</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0.89737470167064437</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5323,8 +5874,21 @@
       <c r="K45" s="3">
         <v>0.81564245810055869</v>
       </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N45" s="3">
+        <v>38.86439518682711</v>
+      </c>
+      <c r="O45" s="3">
+        <v>123.1404303797468</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0.9193154034229829</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5348,8 +5912,21 @@
       <c r="K46" s="3">
         <v>0.85793871866295257</v>
       </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N46" s="3">
+        <v>38.329246358454732</v>
+      </c>
+      <c r="O46" s="3">
+        <v>120.9494430379747</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0.95261845386533672</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5373,8 +5950,21 @@
       <c r="K47" s="3">
         <v>0.82658959537572252</v>
       </c>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N47" s="3">
+        <v>37.629119696010143</v>
+      </c>
+      <c r="O47" s="3">
+        <v>118.4561012658228</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0.9242424242424242</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5398,8 +5988,21 @@
       <c r="K48" s="3">
         <v>0.86039886039886049</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N48" s="3">
+        <v>38.783362887903742</v>
+      </c>
+      <c r="O48" s="3">
+        <v>128.5373670886076</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0.90818858560794047</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5423,8 +6026,21 @@
       <c r="K49" s="3">
         <v>0.83428571428571441</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N49" s="3">
+        <v>37.767701076630793</v>
+      </c>
+      <c r="O49" s="3">
+        <v>129.36488607594941</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0.9126213592233009</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5448,8 +6064,21 @@
       <c r="K50" s="3">
         <v>0.83908045977011503</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N50" s="3">
+        <v>37.117283090563653</v>
+      </c>
+      <c r="O50" s="3">
+        <v>130.07648101265821</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0.91089108910891092</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5473,8 +6102,21 @@
       <c r="K51" s="3">
         <v>0.84548104956268222</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N51" s="3">
+        <v>36.567397086763783</v>
+      </c>
+      <c r="O51" s="3">
+        <v>127.93810126582279</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0.92195121951219516</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5498,8 +6140,21 @@
       <c r="K52" s="3">
         <v>0.88135593220338992</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N52" s="3">
+        <v>38.519740341988609</v>
+      </c>
+      <c r="O52" s="3">
+        <v>116.2700253164557</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0.94117647058823539</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5523,8 +6178,21 @@
       <c r="K53" s="3">
         <v>0.85470085470085466</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N53" s="3">
+        <v>37.754699176694118</v>
+      </c>
+      <c r="O53" s="3">
+        <v>125.48539240506329</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0.91048593350383622</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
@@ -5551,8 +6219,23 @@
         <f>AVERAGE(K4:K53)</f>
         <v>0.85448748442254885</v>
       </c>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" s="3">
+        <f>AVERAGE(N4:N53)</f>
+        <v>37.997888283723888</v>
+      </c>
+      <c r="O55" s="3">
+        <f>AVERAGE(O4:O53)</f>
+        <v>124.69424658227852</v>
+      </c>
+      <c r="P55" s="3">
+        <f>AVERAGE(P4:P53)</f>
+        <v>0.91831251418012916</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
@@ -5578,6 +6261,21 @@
       <c r="K56" s="3">
         <f>_xlfn.STDEV.S(K4:K53)</f>
         <v>2.0990107609255165E-2</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N56" s="3">
+        <f>_xlfn.STDEV.S(N4:N53)</f>
+        <v>0.62129729161921277</v>
+      </c>
+      <c r="O56" s="3">
+        <f>_xlfn.STDEV.S(O4:O53)</f>
+        <v>7.7171393862459503</v>
+      </c>
+      <c r="P56" s="3">
+        <f>_xlfn.STDEV.S(P4:P53)</f>
+        <v>1.3763269490284075E-2</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/underground/tests on superdataset/test-12.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-12.xlsx
@@ -10,6 +10,10 @@
     <sheet name="pos vs negative" sheetId="1" r:id="rId1"/>
     <sheet name="hybrid-3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'hybrid-3'!$T$4:$T$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'hybrid-3'!$U$4:$U$20</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -793,7 +797,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -955,7 +959,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="227"/>
-        <c:overlap val="-48"/>
         <c:axId val="1421546911"/>
         <c:axId val="1421547327"/>
       </c:barChart>
@@ -965,7 +968,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1016,7 +1019,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4128,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
